--- a/biology/Zoologie/Cigogne_épiscopale/Cigogne_épiscopale.xlsx
+++ b/biology/Zoologie/Cigogne_épiscopale/Cigogne_épiscopale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cigogne_%C3%A9piscopale</t>
+          <t>Cigogne_épiscopale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciconia episcopus
-La Cigogne épiscopale (Ciconia episcopus) est une espèce d'oiseaux échassiers de la famille des Ciconiidés. C'est la cigogne tropicale la plus commune en Asie[1].
+La Cigogne épiscopale (Ciconia episcopus) est une espèce d'oiseaux échassiers de la famille des Ciconiidés. C'est la cigogne tropicale la plus commune en Asie.
 Elle construit son nid en roseaux dans les forêts d'arbres et pond entre 2 et 5 œufs et s'occupe de sa nichée. Cette cigogne est habituellement silencieuse mais émet parfois des claquements avec son bec pendant la période de nidification.
 La cigogne épiscopale possède de grandes ailes qui lui permettent de planer, utilisant les courants d'air chaud présents dans l'atmosphère pour se déplacer sur de grandes distances. Comme toutes les cigognes, elle a un cou très élancé.
 La cigogne épiscopale mesure en moyenne 85 cm de hauteur. Son plumage est noir, sauf au niveau de son cou et de son ventre blancs. Les jeunes ont des couleurs plus monotones que celles des adultes.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cigogne_%C3%A9piscopale</t>
+          <t>Cigogne_épiscopale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C. e. episcopus (Boddaert, 1783) — de l'Inde à l'Indochine, Philippines (probablement extirpée), péninsule malaise et nord du Sumatra
 C. e. neglecta (Finsch, 1904) — sud du Sumatra, Java, petites îles de la Sonde et Célèbes</t>
